--- a/AI_genegator/products_2_0.xlsx
+++ b/AI_genegator/products_2_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\AI_genegator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE50D07-0B2A-4D22-9DCE-6EA148383FC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D50B7D-CD47-4C24-819C-887DBBD7731F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="3365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3399" uniqueCount="3369">
   <si>
     <t>10</t>
   </si>
@@ -10570,6 +10570,9 @@
     <t>Декор поверхности плитки</t>
   </si>
   <si>
+    <t>Описание товара</t>
+  </si>
+  <si>
     <t>Lasselsberger-Ceramics 1641-8644 Джапанди полосы Декор 20x40 см</t>
   </si>
   <si>
@@ -10585,6 +10588,21 @@
     <t>ДЖАПАНДИ</t>
   </si>
   <si>
+    <t>**Декор плитка Lasselsberger-Ceramics Джапанди полосы 20x40 см – стильная гармония минимализма и природы**
+Добавьте изысканности и уюта в ваш интерьер с элегантной плиткой декор *Lasselsberger-Ceramics Джапанди полосы*. Этот стильный элемент вдохновлен популярной философией Japandi, которая объединяет лаконичность скандинавского дизайна и утонченную эстетику японской культуры. 
+**Ключевые особенности и преимущества:**
+- **Универсальный размер**: Плитка размером 20x40 см идеально подходит для оформления стен, будь то акцентные зоны, кухонные фартуки или ванные комнаты. 
+- **Матовая поверхность**: Нежное матовое покрытие создает тактильное удовольствие, устраняя лишний блеск и придавая изделию естественный, приглушенный вид.
+- **Эстетика в деталях**: Геометрический узор в виде полос подчеркивает стильный минимализм, визуально расширяет пространство и добавляет ритмичность интерьеру.
+- **Современные нейтральные тона**: Нежные оттенки серого и белого в дизайне плитки легко сочетаются с различными цветами и материалами, создавая ощущение гармонии и легкости.
+- **Надежность и долговечность**: Толщина плитки 7,8 мм гарантирует ее прочность и устойчивость к внешним воздействиям, что делает её идеальным выбором для помещений с высокой эксплуатационной нагрузкой.
+- **Простота ухода**: Матовая поверхность не требует сложного ухода и надолго сохраняет эстетическую привлекательность, что особенно важно в современных интерьерах.
+**Эффектный минимализм для вашего дома**
+Плитка *Джапанди полосы* станет изюминкой любого интерьера. Она прекрасно подходит для создания акцентных стен в ванной комнате или кухни, а также для оформления зон отдыха или стильных коммерческих пространств. Сдержанный дизайн и качественное исполнение подойдут как для современных, так и для классических стилей интерьера.
+**Почему стоит выбрать *Lasselsberger-Ceramics*?**
+Бренд Lb Ceramics – это сочетание перед</t>
+  </si>
+  <si>
     <t>Lasselsberger-Ceramics 1641-8645 Джапанди пэчворк Декор 20x40 см</t>
   </si>
   <si>
@@ -10594,6 +10612,20 @@
     <t>https://cdn1.ozone.ru/s3/multimedia-1-f/7001992923.jpg</t>
   </si>
   <si>
+    <t>**Lasselsberger-Ceramics Джапанди Пэчворк Декор 20x40 см — стильное решение для вашего интерьера**  
+Погрузитесь в мир гармонии и минимализма с плиткой декоративной **Lasselsberger-Ceramics 1641-8645 Джапанди Пэчворк**. Эта изысканная модель от бренда **Lb Ceramics** сочетает в себе элегантность японского минимализма и уют скандинавского дизайна, воплощая эстетику стиля "Джапанди".  
+### **Ключевые характеристики и преимущества**  
+- **Уникальный дизайн пэчворк:** Плитка выполнена в технике пэчворк, с изящными геометрическими и органическими узорами. Каждая деталь продумана до мелочей, создавая эффект ручной работы и добавляя интерьеру индивидуальности.  
+- **Матовая поверхность:** Трендовая матовая текстура придаёт поверхности мягкость и утончённость, устраняя блики и делая декор более естественным.  
+- **Оптимальные размеры:** Размеры 20x40 см идеально подходят для создания акцентных зон, фартуков на кухне, декора ванных комнат или стильных панно в жилых пространствах.  
+- **Универсальная цветовая палитра:** Спокойные, нейтральные оттенки — бежевый, серый, белый — гармонично впишутся в любой интерьер, от современного до классического.  
+- **Высокое качество материалов:** Толщина плитки 7,8 мм обеспечивает прочность и долговечность, гарантируя её сохранность даже при длительной эксплуатации.  
+### **Идеальное решение для интерьера**  
+Плитка **Джапанди Пэчворк** станет акцентом вашего пространства, создавая атмосферу уюта и стиля. Используйте её для оформления ванных комнат, кухонных фартуков, ниш или декоративных вставок. Она прекрасно сочетается с натуральными материалами, такими как дерево, камень и текстиль, подчёркивая вашу любовь к простоте и функциональности.  
+### **Лёгкость монтажа и ухода**  
+Благодаря стандартным размерам и качественной обработ</t>
+  </si>
+  <si>
     <t>Serenissima Cir Chromagic Tian Emerald Ret Декор 60x120 см</t>
   </si>
   <si>
@@ -10607,6 +10639,22 @@
   </si>
   <si>
     <t>CHROMAGIC</t>
+  </si>
+  <si>
+    <t>**Декор Serenissima Cir Chromagic Tian Emerald Ret 60x120 см – изысканность, воплощённая в керамике**  
+Добавьте стиль и утонченность вашему интерьеру с декоративной плиткой **Serenissima Cir Chromagic Tian Emerald Ret**! Этот элегантный элемент декора с размерами **60x120 см** станет главным акцентом в любом пространстве – от гостиной до ванной комнаты.  
+**Изысканный дизайн и натуральная палитра**  
+Декор выполнен в изумрудно-зелёной цветовой гамме с утончёнными художественными элементами. Его сложный рисунок напоминает тонкие линии природного мрамора, соединённые с плавными переходами цвета и деликатными текстурными акцентами. Матовая поверхность добавляет изделию мягкости и утончённости, убирая ненужные блики и позволяя полностью раскрыть красоту узоров.  
+**Премиальное качество и идеальные пропорции**  
+Произведённый под брендом **Serenissima Cir**, известным своим вниманием к деталям и высоким стандартам качества, этот декор сочетает в себе долговечность и эстетическую привлекательность. Благодаря крупному формату **60x120 см**, плитка не только подчёркивает пространство, но и минимизирует количество стыков, создавая ощущение цельного покрытия.  
+**Превосходные технические характеристики**  
+- **Материал**: Качественная керамика премиум-класса, устойчивая к износу.  
+- **Обработка поверхности**: Матовая – для утончённого и современного вида.  
+- **Ректифицированные края**: Гарантия идеальной укладки с минимальными зазорами.  
+- **Размеры упаковки**: 600x1200x250 мм – удобна для транспортировки и хранения.  
+- **Экологическая безопасность**: Не выделяет вредных веществ, подходит для жилых помещений.  
+**Широкие возможности применения**  
+Эта плитка-декор идеально подходит для создания акцентных стен, стильных панно или облицовки небольших зон: будь то изголовье кровати, пространство над кухонной столешницей или зона вокруг зеркала</t>
   </si>
 </sst>
 </file>
@@ -25662,13 +25710,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD6"/>
+      <selection pane="bottomRight" activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25680,10 +25728,10 @@
     <col min="9" max="13" width="15.5703125" style="3" customWidth="1"/>
     <col min="14" max="14" width="15.5703125" style="4" customWidth="1"/>
     <col min="15" max="30" width="15.5703125" style="3" customWidth="1"/>
-    <col min="31" max="31" width="109.140625" customWidth="1"/>
+    <col min="31" max="31" width="105.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3322</v>
       </c>
@@ -25774,10 +25822,13 @@
       <c r="AD1" s="1" t="s">
         <v>3351</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="AE1" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="5" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="B2" s="6">
         <v>200</v>
@@ -25789,16 +25840,16 @@
         <v>400</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="J2" s="5">
         <v>1</v>
@@ -25818,10 +25869,13 @@
       <c r="AC2" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="AE2" s="5" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>3357</v>
+        <v>3359</v>
       </c>
       <c r="B3" s="6">
         <v>200</v>
@@ -25833,16 +25887,16 @@
         <v>400</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>3358</v>
+        <v>3360</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>3359</v>
+        <v>3361</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
@@ -25862,10 +25916,13 @@
       <c r="AC3" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="AE3" s="5" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>3360</v>
+        <v>3363</v>
       </c>
       <c r="B4" s="6">
         <v>600</v>
@@ -25877,16 +25934,16 @@
         <v>1200</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>3361</v>
+        <v>3364</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>3362</v>
+        <v>3365</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>3363</v>
+        <v>3366</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>3364</v>
+        <v>3367</v>
       </c>
       <c r="J4" s="5">
         <v>1</v>
@@ -25903,82 +25960,67 @@
       <c r="AC4" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="AE4" s="5" t="s">
+        <v>3368</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="19">
-    <dataValidation type="whole" showErrorMessage="1" errorTitle="Ошибка" error="Неверный формат данных" sqref="J2:J494232" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Ошибка" error="Неверный формат данных" sqref="K2:M494232 O2:O494232 Q2:Q494232" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
-    <dataValidation type="list" sqref="I2:I494232" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="whole" showErrorMessage="1" errorTitle="Ошибка" error="Неверный формат данных" sqref="J2:J494228" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Ошибка" error="Неверный формат данных" sqref="K2:M494228 O2:O494228 Q2:Q494228" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
+    <dataValidation type="list" sqref="I2:I494228" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>name18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="N2:N494232" xr:uid="{00000000-0002-0000-0300-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="N2:N494228" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>name24</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="P2:P494232" xr:uid="{00000000-0002-0000-0300-000004000000}">
+    <dataValidation type="list" sqref="P2:P494228" xr:uid="{00000000-0002-0000-0300-000004000000}">
       <formula1>name31</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="R2:R494232" xr:uid="{00000000-0002-0000-0300-000005000000}">
+    <dataValidation type="list" sqref="R2:R494228" xr:uid="{00000000-0002-0000-0300-000005000000}">
       <formula1>name33</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="S2:S494232" xr:uid="{00000000-0002-0000-0300-000006000000}">
+    <dataValidation type="list" sqref="S2:S494228" xr:uid="{00000000-0002-0000-0300-000006000000}">
       <formula1>name34</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="T2:T494232" xr:uid="{00000000-0002-0000-0300-000007000000}">
+    <dataValidation type="list" sqref="T2:T494228" xr:uid="{00000000-0002-0000-0300-000007000000}">
       <formula1>name35</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="U2:U494232" xr:uid="{00000000-0002-0000-0300-000008000000}">
+    <dataValidation type="list" sqref="U2:U494228" xr:uid="{00000000-0002-0000-0300-000008000000}">
       <formula1>name39</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="V2:V494232" xr:uid="{00000000-0002-0000-0300-000009000000}">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="V2:V494228" xr:uid="{00000000-0002-0000-0300-000009000000}">
       <formula1>name44</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="W2:W494232" xr:uid="{00000000-0002-0000-0300-00000A000000}">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="W2:W494228" xr:uid="{00000000-0002-0000-0300-00000A000000}">
       <formula1>name45</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="X2:X494232" xr:uid="{00000000-0002-0000-0300-00000B000000}">
+    <dataValidation type="list" sqref="X2:X494228" xr:uid="{00000000-0002-0000-0300-00000B000000}">
       <formula1>name46</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="Y2:Y494232" xr:uid="{00000000-0002-0000-0300-00000C000000}">
+    <dataValidation type="list" sqref="Y2:Y494228" xr:uid="{00000000-0002-0000-0300-00000C000000}">
       <formula1>name47</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="Z2:Z494232" xr:uid="{00000000-0002-0000-0300-00000D000000}">
+    <dataValidation type="list" sqref="Z2:Z494228" xr:uid="{00000000-0002-0000-0300-00000D000000}">
       <formula1>name48</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="AA2:AA494232" xr:uid="{00000000-0002-0000-0300-00000E000000}">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="AA2:AA494228" xr:uid="{00000000-0002-0000-0300-00000E000000}">
       <formula1>name49</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="AB2:AB494232" xr:uid="{00000000-0002-0000-0300-00000F000000}">
+    <dataValidation type="list" sqref="AB2:AB494228" xr:uid="{00000000-0002-0000-0300-00000F000000}">
       <formula1>name50</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="AC2:AC494232" xr:uid="{00000000-0002-0000-0300-000010000000}">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="AC2:AC494228" xr:uid="{00000000-0002-0000-0300-000010000000}">
       <formula1>name51</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="AD2:AD494232" xr:uid="{00000000-0002-0000-0300-000011000000}">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="Ошибка" error="Выберите значение из списка" sqref="AD2:AD494228" xr:uid="{00000000-0002-0000-0300-000011000000}">
       <formula1>name52</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка" error="Неверный формат данных" sqref="B2:D494232" xr:uid="{00000000-0002-0000-0300-000012000000}"/>
+    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка" error="Неверный формат данных" sqref="B2:D494228" xr:uid="{00000000-0002-0000-0300-000012000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/AI_genegator/products_2_0.xlsx
+++ b/AI_genegator/products_2_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\AI_genegator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D50B7D-CD47-4C24-819C-887DBBD7731F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2DCF1F-160B-43C1-B576-F80A00AABAE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10588,19 +10588,16 @@
     <t>ДЖАПАНДИ</t>
   </si>
   <si>
-    <t>**Декор плитка Lasselsberger-Ceramics Джапанди полосы 20x40 см – стильная гармония минимализма и природы**
-Добавьте изысканности и уюта в ваш интерьер с элегантной плиткой декор *Lasselsberger-Ceramics Джапанди полосы*. Этот стильный элемент вдохновлен популярной философией Japandi, которая объединяет лаконичность скандинавского дизайна и утонченную эстетику японской культуры. 
-**Ключевые особенности и преимущества:**
-- **Универсальный размер**: Плитка размером 20x40 см идеально подходит для оформления стен, будь то акцентные зоны, кухонные фартуки или ванные комнаты. 
-- **Матовая поверхность**: Нежное матовое покрытие создает тактильное удовольствие, устраняя лишний блеск и придавая изделию естественный, приглушенный вид.
-- **Эстетика в деталях**: Геометрический узор в виде полос подчеркивает стильный минимализм, визуально расширяет пространство и добавляет ритмичность интерьеру.
-- **Современные нейтральные тона**: Нежные оттенки серого и белого в дизайне плитки легко сочетаются с различными цветами и материалами, создавая ощущение гармонии и легкости.
-- **Надежность и долговечность**: Толщина плитки 7,8 мм гарантирует ее прочность и устойчивость к внешним воздействиям, что делает её идеальным выбором для помещений с высокой эксплуатационной нагрузкой.
-- **Простота ухода**: Матовая поверхность не требует сложного ухода и надолго сохраняет эстетическую привлекательность, что особенно важно в современных интерьерах.
-**Эффектный минимализм для вашего дома**
-Плитка *Джапанди полосы* станет изюминкой любого интерьера. Она прекрасно подходит для создания акцентных стен в ванной комнате или кухни, а также для оформления зон отдыха или стильных коммерческих пространств. Сдержанный дизайн и качественное исполнение подойдут как для современных, так и для классических стилей интерьера.
-**Почему стоит выбрать *Lasselsberger-Ceramics*?**
-Бренд Lb Ceramics – это сочетание перед</t>
+    <t>**Декор-плитка Lasselsberger-Ceramics Джапанди полосы 20x40 см – гармония минимализма и утонченного стиля**
+Создайте интерьер, который вдохновляет, с декор-плиткой Lasselsberger-Ceramics Джапанди полосы. Этот изысканный элемент объединяет японскую эстетику и скандинавскую лаконичность, превращая любое пространство в оазис комфорта и современного дизайна.
+**Преимущества, которые впечатляют:**
+- **Современный узор.** Вертикальные полосы визуально вытягивают пространство, добавляя глубины и динамики. Этот дизайн станет стильным акцентом, который подчеркнет ваш вкус.
+- **Натуральная цветовая гамма.** Нейтральные оттенки серого и белого органично впишутся в любой интерьер, создавая атмосферу спокойствия и легкости. Отлично сочетается с деревом, металлом и другими текстурами.
+- **Удобный формат.** Размер 20x40 см идеально подходит для создания акцентных стен, кухонных фартуков или оформления ванной комнаты. Универсальность размеров открывает простор для творчества.
+- **Матовая поверхность.** Эстетика природных материалов без лишнего блеска. Матовая текстура выглядит стильно и добавляет уют в пространство.
+- **Долговечность.** Толщина 7.8 мм гарантирует прочность и устойчивость к износу. Плитка сохранит свою красоту на долгие годы даже в помещениях с высокой влажностью.
+- **Легкость в уходе.** Материал легко очищается, что делает его идеальным для современных интерьеров, где важна не только красота, но и практичность.
+Плитка Lasselsberger-Ceramics Джапанди полосы – это не просто отделочный материал, а способ выразить ваш уникальный стиль. Привнесите в свой дом гармонию и элегантность, которые будут радовать каждый день!</t>
   </si>
   <si>
     <t>Lasselsberger-Ceramics 1641-8645 Джапанди пэчворк Декор 20x40 см</t>
@@ -10612,18 +10609,20 @@
     <t>https://cdn1.ozone.ru/s3/multimedia-1-f/7001992923.jpg</t>
   </si>
   <si>
-    <t>**Lasselsberger-Ceramics Джапанди Пэчворк Декор 20x40 см — стильное решение для вашего интерьера**  
-Погрузитесь в мир гармонии и минимализма с плиткой декоративной **Lasselsberger-Ceramics 1641-8645 Джапанди Пэчворк**. Эта изысканная модель от бренда **Lb Ceramics** сочетает в себе элегантность японского минимализма и уют скандинавского дизайна, воплощая эстетику стиля "Джапанди".  
-### **Ключевые характеристики и преимущества**  
-- **Уникальный дизайн пэчворк:** Плитка выполнена в технике пэчворк, с изящными геометрическими и органическими узорами. Каждая деталь продумана до мелочей, создавая эффект ручной работы и добавляя интерьеру индивидуальности.  
-- **Матовая поверхность:** Трендовая матовая текстура придаёт поверхности мягкость и утончённость, устраняя блики и делая декор более естественным.  
-- **Оптимальные размеры:** Размеры 20x40 см идеально подходят для создания акцентных зон, фартуков на кухне, декора ванных комнат или стильных панно в жилых пространствах.  
-- **Универсальная цветовая палитра:** Спокойные, нейтральные оттенки — бежевый, серый, белый — гармонично впишутся в любой интерьер, от современного до классического.  
-- **Высокое качество материалов:** Толщина плитки 7,8 мм обеспечивает прочность и долговечность, гарантируя её сохранность даже при длительной эксплуатации.  
-### **Идеальное решение для интерьера**  
-Плитка **Джапанди Пэчворк** станет акцентом вашего пространства, создавая атмосферу уюта и стиля. Используйте её для оформления ванных комнат, кухонных фартуков, ниш или декоративных вставок. Она прекрасно сочетается с натуральными материалами, такими как дерево, камень и текстиль, подчёркивая вашу любовь к простоте и функциональности.  
-### **Лёгкость монтажа и ухода**  
-Благодаря стандартным размерам и качественной обработ</t>
+    <t>**Декоративная плитка Lb Ceramics Джапанди Пэчворк 20x40 см – стиль, вдохновленный природой и минимализмом**  
+Создайте атмосферу уюта и гармонии с декоративной плиткой Lb Ceramics Джапанди Пэчворк. Этот уникальный элемент интерьера объединяет японскую утонченность и скандинавскую простоту, превращая пространство в оазис современного дизайна.  
+### Почему стоит выбрать эту плитку?  
+- **Элегантный пэчворк-дизайн**  
+Нежные природные и геометрические мотивы создают эффект ручной работы, добавляя интерьеру индивидуальность и глубину.  
+- **Матовая текстура – изысканность в каждой детали**  
+Мягкая поверхность без бликов выглядит стильно и дорого, подчеркивая естественную красоту пространства.  
+- **Оптимальные размеры для акцентов**  
+Формат 20x40 см идеально подходит для выделения акцентных зон – будь то фартук на кухне, стена в ванной или декор в гостиной.  
+- **Универсальная палитра**  
+Нейтральные оттенки серого, бежевого и белого легко сочетаются с любыми интерьерными решениями, создавая атмосферу тепла и гармонии.  
+- **Надежность и долговечность**  
+Толщина 7,8 мм и высокое качество исполнения обеспечивают устойчивость к износу, делая плитку идеальным выбором для долгосрочного использования.  
+Добавьте изюминку своему интерьеру с плиткой Lb Ceramics Джапанди Пэчворк – это стильный акцент, который подчеркнет вашу любовь к современному дизайну.</t>
   </si>
   <si>
     <t>Serenissima Cir Chromagic Tian Emerald Ret Декор 60x120 см</t>
@@ -10641,20 +10640,19 @@
     <t>CHROMAGIC</t>
   </si>
   <si>
-    <t>**Декор Serenissima Cir Chromagic Tian Emerald Ret 60x120 см – изысканность, воплощённая в керамике**  
-Добавьте стиль и утонченность вашему интерьеру с декоративной плиткой **Serenissima Cir Chromagic Tian Emerald Ret**! Этот элегантный элемент декора с размерами **60x120 см** станет главным акцентом в любом пространстве – от гостиной до ванной комнаты.  
-**Изысканный дизайн и натуральная палитра**  
-Декор выполнен в изумрудно-зелёной цветовой гамме с утончёнными художественными элементами. Его сложный рисунок напоминает тонкие линии природного мрамора, соединённые с плавными переходами цвета и деликатными текстурными акцентами. Матовая поверхность добавляет изделию мягкости и утончённости, убирая ненужные блики и позволяя полностью раскрыть красоту узоров.  
-**Премиальное качество и идеальные пропорции**  
-Произведённый под брендом **Serenissima Cir**, известным своим вниманием к деталям и высоким стандартам качества, этот декор сочетает в себе долговечность и эстетическую привлекательность. Благодаря крупному формату **60x120 см**, плитка не только подчёркивает пространство, но и минимизирует количество стыков, создавая ощущение цельного покрытия.  
-**Превосходные технические характеристики**  
-- **Материал**: Качественная керамика премиум-класса, устойчивая к износу.  
-- **Обработка поверхности**: Матовая – для утончённого и современного вида.  
-- **Ректифицированные края**: Гарантия идеальной укладки с минимальными зазорами.  
-- **Размеры упаковки**: 600x1200x250 мм – удобна для транспортировки и хранения.  
-- **Экологическая безопасность**: Не выделяет вредных веществ, подходит для жилых помещений.  
-**Широкие возможности применения**  
-Эта плитка-декор идеально подходит для создания акцентных стен, стильных панно или облицовки небольших зон: будь то изголовье кровати, пространство над кухонной столешницей или зона вокруг зеркала</t>
+    <t>**Изумрудный шедевр для вашего интерьера**  
+Плитка-декор **Serenissima Cir Chromagic Tian Emerald Ret** (60x120 см) – это не просто отделочный материал, а настоящая дизайнерская находка. Ее глубокий изумрудный оттенок с изящными природными узорами создаст атмосферу утонченной роскоши и стиля в любом помещении.  
+**Природная гармония и современный шик**  
+Матовая поверхность плитки напоминает текстуру благородного камня, а крупные размеры (60x120 см) делают пространство визуально цельным и элегантным. Этот декор идеально подойдет для интерьеров в стиле минимализм, модерн или арт-деко, добавляя нотку природной свежести и изысканности.  
+**Итальянское качество в каждой детали**  
+Произведенная брендом **Serenissima Cir**, эта плитка сочетает в себе актуальный дизайн и европейские стандарты долговечности. Ректифицированные края обеспечивают идеальную укладку без заметных швов, а износостойкая керамика гарантирует долгие годы безупречной службы.  
+**Преимущества, которые вы оцените:**  
+- **Материал:** Прочная и экологичная керамика.  
+- **Обработка:** Матовая поверхность для стильного и современного эффекта.  
+- **Размер:** Крупный формат для минимизации швов.  
+- **Универсальность:** Подходит для жилых и коммерческих помещений.  
+- **Упаковка:** Компактные габариты (600x250x1200 мм) для удобной транспортировки.  
+Украсьте стены своего дома плиткой, которая вдохновляет. **Serenissima Cir Chromagic Tian Emerald Ret** – это выбор тех, кто ценит стиль, качество и природную эстетику.</t>
   </si>
 </sst>
 </file>
@@ -25713,10 +25711,10 @@
   <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AE19" sqref="AE19"/>
+      <selection pane="bottomRight" activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25728,7 +25726,7 @@
     <col min="9" max="13" width="15.5703125" style="3" customWidth="1"/>
     <col min="14" max="14" width="15.5703125" style="4" customWidth="1"/>
     <col min="15" max="30" width="15.5703125" style="3" customWidth="1"/>
-    <col min="31" max="31" width="105.5703125" customWidth="1"/>
+    <col min="31" max="31" width="105.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25873,7 +25871,7 @@
         <v>3358</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3359</v>
       </c>

--- a/AI_genegator/products_2_0.xlsx
+++ b/AI_genegator/products_2_0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\AI_genegator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis2\AI_genegator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2DCF1F-160B-43C1-B576-F80A00AABAE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8B2DC2-B4C4-4AD4-92E0-A717E44688B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validation" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25711,10 +25711,10 @@
   <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AE2" sqref="AE2"/>
+      <selection pane="bottomRight" activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25824,7 +25824,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="5" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="5" customFormat="1" ht="354.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3353</v>
       </c>
